--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtByNewBankCardSuccessful.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10080" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,7 +107,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工商银行</t>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardBank(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBindedCardUser(${436742121737})}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,13 +475,14 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="16.125" customWidth="1"/>
   </cols>
@@ -499,16 +504,16 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -522,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -534,20 +539,20 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtByNewBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -111,11 +111,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getBindedCardBank(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${BankCardUtils.getBindedCardUser(${436742121737})}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -542,7 +542,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
